--- a/UBI.xlsx
+++ b/UBI.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2033</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4">
@@ -568,10 +568,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="A11" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
